--- a/data/hotels_by_city/Dallas/Dallas_shard_538.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="783">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Misty M</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>562jeff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r568127923-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>lesleejwebb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r563262177-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve">This is not what I expected from Wyndham. I would recommend them to do some updates on the rooms. Carpet was nice and bathroom countertops looked nice but everything else gave me a 80’s feel. Paint, new decorations, and a some deep cleaning would go a long way. </t>
   </si>
   <si>
+    <t>trieu_long701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r551039470-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>K3349RFmichaelm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r546726160-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Q1615XGkevinw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r545306123-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>People at the hotel that was possibly selling drugs or prostituting in one of the hotels rooms by the back door that back door stayed unlock the entire time we were there except for Thursday night the night before we checked out also the guy took my credit card over the phone and when we went to check in the guy tells us they don't do that they don't take credit cards over the phone and I told him that the guy did take my credit card over the phone and made it seem like he ran our chargers for our room I tried to play the recording back to the hotel receptionist guy but he refused to listen to it stay away from this hotel as far as you can I will never stay there againMore</t>
   </si>
   <si>
+    <t>tylero384</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r543165855-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t xml:space="preserve">I am by no means a bug expert, but I was very uncomfortable staying at the hotel in Arlington Tx. There were dozens of what looked like bed bugs (crawling on bed, ceiling, in shower, just everywhere) I immediately checked out and asked for a refund, I did not receive a refund because the managers was not in. I've called back multiply times and I've been told the manager is aware of your message... but yet I still have not been contacted or refunded. Now it has been a week since the incident. So just don't stay at this hotel. Looks are deceiving </t>
   </si>
   <si>
+    <t>shortyShreveport</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r542876579-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>Employee called customer the n word.   It wasn’t there fault roaches were everywhere.   Let’s see how Monday goes. We have his name, his picture.   Don’t go to this hotel!!!   Pathetic, awful, rude management</t>
   </si>
   <si>
+    <t>X1650WFscottk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r542342642-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t xml:space="preserve">Roaches in two separate rooms. Management was rude. Desk person had no clue. Checked out move to another hotel </t>
   </si>
   <si>
+    <t>danielsU2361BG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r532407446-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -336,6 +366,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>991marquise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r532398400-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -351,6 +384,9 @@
     <t>The front desk clerk, Valerie was not very friendly. We had an issue where none of the prime channels worked and her response well it must be your remote, I am having no issues here at my desk so it must be something your doing. I also wanted to buy a soda but the coke machine would not accept coins so I asked her for change for a $5 bill...... A five dollar bill that she held to the light and even ran the marker across to confirm the validity of the dollar.... I was truly offended by the act. The parking is very dimly lit, breakfast was horrible!! Breakfast was definitely a continental breakfast at best, the waffles offered were Eggo waffles, packets of Quaker oatmeal and dry cereal, which would have been fine if it were advertised as such.More</t>
   </si>
   <si>
+    <t>384kimberlyy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r525767911-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -369,6 +405,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>JzJza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r519716427-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -381,6 +420,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>mmO53TP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r514857785-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -396,6 +438,9 @@
     <t>I left like it wasn't clean enough we had planned to stay the night but we ended up leaving maybe 40mins after check in</t>
   </si>
   <si>
+    <t>peacejoy80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r506196496-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -408,6 +453,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>lydiam297</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r503341463-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -423,6 +471,9 @@
     <t xml:space="preserve">My sister and I went to see the Rangers play and the couple next to our room had kids that was running up and down the hall yelling and screaming.  Did not get hardly any sleep. They were also talking real loud, slamming the doors and no breakfast. The mirror that is behind the bed was broken </t>
   </si>
   <si>
+    <t>msantana90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r503224279-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -432,6 +483,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>texasa2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r501702061-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -441,6 +495,9 @@
     <t>07/13/2017</t>
   </si>
   <si>
+    <t>Brande K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r493330266-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -456,6 +513,9 @@
     <t>Room was not ready.  Had to try 3 rooms before we finally could settle in.  No elevator.  No ice on the second floor.  Walls and doors are paper thin.  Breakfast was pathetic.  Only positive is the location.</t>
   </si>
   <si>
+    <t>lindasP5440WE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r492772180-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -465,6 +525,9 @@
     <t>06/13/2017</t>
   </si>
   <si>
+    <t>568moore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r492281155-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -474,6 +537,9 @@
     <t>06/11/2017</t>
   </si>
   <si>
+    <t>danielcO2335WB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r487709229-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -492,6 +558,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Wadytwos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r487399252-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -507,6 +576,9 @@
     <t>It was clean and the beds were comfortable, but it is very outdated.  Location is great, hotel staff is very unprofessional.  Continental breakfast was very minimal. Pool was clean but quite small. Towels are cheap and rough.  Refrigerator in room but no microwave or coffee maker.</t>
   </si>
   <si>
+    <t>sarahkZ7553YR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r486151321-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -516,6 +588,9 @@
     <t>05/21/2017</t>
   </si>
   <si>
+    <t>Georgann B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r481641488-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -528,12 +603,18 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>LarissaArmstrong3512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r481618043-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
     <t>481618043</t>
   </si>
   <si>
+    <t>898nellief</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r472090123-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -552,6 +633,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Hawdeez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r469489644-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -567,6 +651,9 @@
     <t>I've stayed at different locations for Microtel, but this one was the worse I had been to. The staff was not friendly and seemed to be agitated by just doing their jobs. The room was fine but it had a weird smell. The hotel had a good location and proximity to food and things to do, but as a hotel I was less than enthusiastic</t>
   </si>
   <si>
+    <t>briannaw315</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r468106206-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -576,6 +663,9 @@
     <t>03/17/2017</t>
   </si>
   <si>
+    <t>janetwO6715RV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r467922130-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -591,6 +681,9 @@
     <t>Friendly check-in clerk. Room clean, well lit. Person above 'tromping' back and forth from 4 a.m. to 6 p.m. Told management. Problem corrected immediately.</t>
   </si>
   <si>
+    <t>W8198FDchristophera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r446722548-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -609,12 +702,18 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>David L E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r446697791-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
     <t>446697791</t>
   </si>
   <si>
+    <t>gordonr666</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r444475363-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -630,6 +729,9 @@
     <t xml:space="preserve">The stay was great. As a truck driver I sometimes find it really hard to find places to stay and park my rig. This hotel has good rooms at reasonable prices and room for me to park. I would definitely stay here again. </t>
   </si>
   <si>
+    <t>lasheria</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r442867913-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -648,6 +750,9 @@
     <t>We have stayed at Microtels all over the states.  This one should not be a Microtel.  The rooms are the size of a big boxes.  The bed was not close the other microtels we've stayed in. The owner is rude and can't talk to a woman with respect.  I asked for the bathroom to be cleaned, it didn't get done so I went to the front desk to get stuff to clean it with. The owner was rude to me. I told him that I would have my husband come talk to him. He said "is that a threat"...I told him no it is not it is a talk about the room we paid for. I had to go get trash bags to empty the trash.  Property is old and not well kept.  Everyone was nice, except for the owner.  The breakfast....you should go out to get your own. Free is not a good thing here.  The rooms aren't cleaned well. We looked at two.  The first one, the bed looked like someone had just got out of it. Will never stay here again. I wouldn't even give this place a rating of 1. -5 would be my best.  multilingual staff, I was told by the owner that the maid didn't speak english but this was not true. There is a room with a hot tube in it but......uh no.More</t>
   </si>
   <si>
+    <t>Lavonda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r441358361-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -660,6 +765,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>RBRansom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r440452010-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -669,6 +777,9 @@
     <t>11/27/2016</t>
   </si>
   <si>
+    <t>johnpZ954BD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r426440045-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -681,6 +792,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>eduardogD2439OE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r421034136-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -699,6 +813,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Robert F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r419146584-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -714,6 +831,9 @@
     <t>Property was average. Nothing stood out that would encourage another stay. Coffee Ok, but could also use some amenities  such as real creamers for coffee. Powder is out of style. Check in easy, check out OK .. nothing special that I can say.</t>
   </si>
   <si>
+    <t>toony86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r395164400-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -732,6 +852,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>O5874LYdeborahm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r394376010-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -741,6 +864,9 @@
     <t>07/19/2016</t>
   </si>
   <si>
+    <t>thomasgC6076BZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r392925915-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -748,6 +874,9 @@
   </si>
   <si>
     <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>YetAnotherRoadWarrio</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r387032704-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
@@ -773,6 +902,9 @@
 All of this points back to very poor management practices.  The...We had reserved a NONSMOKING king-bed room at the Arlington Microtel.  We arrived at around 5pm, and checked into our room.  The clerk clearly repeated “Non-smoking King” as she checked us in.  We were running a bit late, so we quickly dumped our stuff in the room and left for the ball game.  When we returned around midnight, we discovered that the room REEKED of cigarette smoke.  When we complained to the desk, they checked their maintenance log and noticed that the room was already on their list because of smoke odor. So WHY did you give it to us when we requested a NONSMOKING, and they knew that at check in??  There were several other hotel problems: 1) the sink in the room drained VERY slowly — it took 15-20 minutes to drain a sink-full of water 2) the light over the bed worked only intermittently 3) the inside door handle and lock were loose — this is a security issue 4) we arrived for breakfast at 9:28am, a few minutes before it was to close at 9:30am - but all of the food had already been taken down  6) on checkout I tried to explain these problems to the clerk - but he was far more interested in his personal cell phone call than in noting anything down. Clearly his priority was to get rid of me.All of this points back to very poor management practices.  The desk clerks either have not been properly trained, or are not supervised adequately. Either the housekeeping staff is failing to report obvious maintenance issues in the room, or management is deferring necessary maintenance.  In any case, it all comes back to the hotel manager.  I guess the moral here is that you get exactly what you pay for.  This Arlington Microtel is not just cheap — it is also inexpensive…More</t>
   </si>
   <si>
+    <t>Ellis L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r383770938-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -782,6 +914,9 @@
     <t>06/18/2016</t>
   </si>
   <si>
+    <t>D628KOjamesc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r381709377-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -797,6 +932,9 @@
     <t>The stay at the microtel in Arlington Texas was the worst experience I have ever had at a motel ,that is saying a lot I have stayed in motels for over 45 years. The day manager was the most rude individual I have ever dealt with. The first words he said to me was I can't understand anything you are saying  do you want to stay or not. I found that funny since he was of Indian decent and spoke horrible English. I will stay in the car before go back to this place</t>
   </si>
   <si>
+    <t>JESSICA A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r365681894-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -815,6 +953,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Jesus M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r365449798-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -824,6 +965,9 @@
     <t>04/19/2016</t>
   </si>
   <si>
+    <t>John F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r365421155-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -839,6 +983,9 @@
     <t>Before arriving at the hotel I booked through the Wyndham rewards website and requested a handicap room. The staff called me ahead of time to let me know they did not have one available but tried to accommodate me with another room. I got here and the room was fairly  clean, but the TV did not work. Staff was in and out of my room changing wires and cable boxes until 12:30 a.m. They never got the TV to work and the wifi was terrible as well. After all the inconvenience I asked for part of my reward points to be credited back to my account and was never given a response. I tried up until the time Left on Sunday after having to change rooms and was told that the manager would let me know and now it's two days later and I still have not gotten a response. The hallway smelled of some type of weird odor and smoke from cigarettes. If you just want a place to lay your head for the night and don't care about amenities this is your place. If you are looking for great service please look somewhere else. The up side is it was fairly clean. More</t>
   </si>
   <si>
+    <t>yerigang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r358995849-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -857,6 +1004,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>857ameliag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r352327833-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -866,6 +1016,9 @@
     <t>03/02/2016</t>
   </si>
   <si>
+    <t>shaneb818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r342224868-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -884,6 +1037,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>davidfP7377LY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r337566231-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -893,6 +1049,9 @@
     <t>01/05/2016</t>
   </si>
   <si>
+    <t>Melissa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r337273570-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1070,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>748noral</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r336278115-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1082,9 @@
     <t>12/31/2015</t>
   </si>
   <si>
+    <t>Sean_Lovedale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r332756470-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -938,6 +1103,9 @@
     <t>Unsafe desk chairs, the young man who works the desk in the morning is too busy playing video games to tend to customers, no maid service and the TV turned off while I was sleeping and I became wide awake! I sleep with the TV on and the voices help me to sleep; this has been the condition for thirty years that I know of and when I wake up the room is dark and I need to be able to see where I am. This is bull___ when someone else decides how I should sleep. I had to turn the bathroom light on all night in order to see where I am and then turn the TV back on.More</t>
   </si>
   <si>
+    <t>dolorest482</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r329325338-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1118,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>jluallen3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r324505849-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1139,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>386ernyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r320749039-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1151,9 @@
     <t>10/21/2015</t>
   </si>
   <si>
+    <t>147sylviar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r319424423-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1163,9 @@
     <t>10/16/2015</t>
   </si>
   <si>
+    <t>R7088QGdaveb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r319147354-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1175,9 @@
     <t>10/15/2015</t>
   </si>
   <si>
+    <t>940zeeshanq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r312538113-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1196,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Rallzy00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r310174440-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1028,6 +1214,9 @@
     <t>Me and my girlfriend stayed in it because it was cheap and we definitely got what we paid for. The hallway smelled like mold and garbage combined, we had a non-smoking room and our bathroom smelled like weed. The key card reader on the door quit working our first night there so had to have someone at the front desk let us in to our room the whole weekend. Our sink leaked all over the counter and floor when we used it. The only good things about this place was the location. I would only stay in this if I had nowhere else to stay.</t>
   </si>
   <si>
+    <t>Tobie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r309782926-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1043,6 +1232,9 @@
     <t xml:space="preserve">I travel to the Dallas/Arlington area at least every other month from the spring to the fall. After a few bad experiences at other hotels, this one is 1 of 2 that I book. The location is perfect for all the things i like to do in and outside the Arlington area. Most importantly the bathroom is clean and the bed is soft. My only complaint is the smoke smell. I recommend bringing a candle to burn in your room regardless if it is  non smoking because the smell is strong and lingers throughout the entire facility. The pool is nice and clean and the staff is great. </t>
   </si>
   <si>
+    <t>kerrir519</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r303028840-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1061,6 +1253,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Ronda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r300087672-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1076,6 +1271,9 @@
     <t>Room was clean, beds comfy and air conditioner was cold. Front desk staff was kind and helpful.</t>
   </si>
   <si>
+    <t>BJBall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r293604700-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1286,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Princewood_court_</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r286184558-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1103,6 +1304,9 @@
     <t>Lumber stacked in hallway, no sign of it being used anytime soon. Security key card locks inoperable on exterior entries. Possible hookers on property.</t>
   </si>
   <si>
+    <t>765destinyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r285123634-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1319,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Virnus B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r283243789-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1124,6 +1331,9 @@
     <t>06/26/2015</t>
   </si>
   <si>
+    <t>Tmesha W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r279254935-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1343,9 @@
     <t>06/10/2015</t>
   </si>
   <si>
+    <t>Samuel L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r279110175-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1355,9 @@
     <t>06/09/2015</t>
   </si>
   <si>
+    <t>Serena J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r277966650-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1367,9 @@
     <t>06/04/2015</t>
   </si>
   <si>
+    <t>294jeris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r271418409-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1163,6 +1382,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Brandi W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r269580523-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1397,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>mmdavis516</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r268199458-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1184,6 +1409,9 @@
     <t>04/26/2015</t>
   </si>
   <si>
+    <t>Hillery W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r265974767-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1202,6 +1430,9 @@
     <t>I'm sorry to say my stay was not enjoyable. The customer  service from one young man was marginal due to an "interesting " conversationThe facility was in need of repair. I requested a battery so I could replace the one in the chirping smoke alarm. The curtains at the window were old and soiled. Two of the recessed light fixtures  were falling out of position. The carpet was frayed on the edges and needed replaced. The bathroom sink drain did not operate properly  (I fixed it temporarily ) The rear entrance to the building did not lock (security! !!!!)The beds,however,  were  comfortable  with clean sheets.Keep in mind WYNDHAM  associates it's name with this establishment???More</t>
   </si>
   <si>
+    <t>TripOuttahere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r261493808-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1451,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Brett G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r258915107-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1466,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Dale K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r253534565-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1484,9 @@
     <t>I usually have better luck with Microtel.  DIngy, dirty and not pleasant.  Tiny room with barely adequate qter pressure and temperature. and what is it with more and more hotels not offering coffee in the room. On top of that when I checked out the clerk stated he wasn't allowed to print me  a receipt. They email receipts.  Sorry that doesn't work for me. I'm not letting you charge me for a room and I can't see the breakdown before I leave. No.  I finally got him to speak to the manager who allowed him to print me a receipt.</t>
   </si>
   <si>
+    <t>roseo691</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r253394141-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1496,9 @@
     <t>02/09/2015</t>
   </si>
   <si>
+    <t>sooner4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r253153959-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1517,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r244890808-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1286,6 +1532,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>C2667GPrichardd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r244343757-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1295,6 +1544,9 @@
     <t>12/13/2014</t>
   </si>
   <si>
+    <t>Nouwandaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r242771466-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1562,9 @@
     <t>Averge hotel, stayed in 115 dollar suite, toilet leaked and water pressure for the shower was very low. I would not stay here again. Nice staff, but that was it. Hot tub worked fine, but now I wonder if that was a mistake!</t>
   </si>
   <si>
+    <t>st3v3nss33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r241632393-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1322,6 +1577,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>asanchez1986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r235452470-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +1592,9 @@
     <t>The rooms were small, the carpet needs to be replaced because it was dirty and torn. The top of the toilet was missing. Roaches crawling in the lobby. The worst part of the room was that you can hear every single thing the people in the next room to you do and say.Didn't get any sleep with all the noise that both rooms on each side were making. You can even hear when they take a shower and flush the toilet. Never again will i stay here.</t>
   </si>
   <si>
+    <t>Maria J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r231481601-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1352,6 +1613,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Alan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r225799880-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1364,6 +1628,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Pete P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r216212646-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +1646,9 @@
     <t>The hotel smells as soon as you walk in. There's dirt all over the hallways. You need to slam the door shut just to close them. The walls have cracks in them from how old the place is. Customer service is terrible when I called them. I didn't even stay the night, I went somewhere else real quick. This is one crap hotel.</t>
   </si>
   <si>
+    <t>Earon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r215660653-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1667,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r210222653-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1421,6 +1694,9 @@
     <t>210161728</t>
   </si>
   <si>
+    <t>Joanne H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r209212563-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1436,6 +1712,9 @@
     <t xml:space="preserve">The front desk people were nice. The room was ok. The bathroom was not in good working order. There was no hot water in the sink and the water would not turn completely off. It was a steady stream of water. Also the plug in the bathroom didn't work. I was told that we would switch rooms but nothing was done. We stayed 3 days. It was dissappointing as we have stayed with you before and was pleased. </t>
   </si>
   <si>
+    <t>Joseph R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r205434717-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1733,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>krv448</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r205271526-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1469,12 +1751,18 @@
     <t>With the Wyndham name, I kind of expected more, but it was just a regular hotel. Cute window seat. The pool was small but we did not swim. The A/C was fantastic. Location was good - plenty of stores and restaurants around the hotel.The beds were comfy enough. Bathroom was large, which I appreciated. Breakfast was lame - old fruit and only enough milk left for me to pour one bowl of cereal. Four containers of yogurt in the fridge. Plain continental breakfast.</t>
   </si>
   <si>
+    <t>Paul V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r205264145-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
     <t>205264145</t>
   </si>
   <si>
+    <t>Alan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r200026556-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1781,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>cocacolalady63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r198784633-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1505,6 +1796,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>DBR33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r198230259-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1520,6 +1814,9 @@
     <t>There was no way I was staying here. Everything was broken down, dirty, uninviting. The place smelled like smoke. The desk was filthy.When you think of fleabag hotels that a serial killer might stay at, this place comes to mind.</t>
   </si>
   <si>
+    <t>Desiree B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r196292104-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1538,6 +1835,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Mindy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r195424225-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1847,9 @@
     <t>02/26/2014</t>
   </si>
   <si>
+    <t>John E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r190218988-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1559,6 +1862,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r186201964-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +1877,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Roxxy079</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r184996991-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1901,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Bishop216</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r168484364-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1607,6 +1919,9 @@
     <t xml:space="preserve">Great location but terrible service.   The front desk clerk was very rude. She was not helpful and had a terrible attitude. When I told fhem to refund my money all of a sudden the attiudes changes. The room was was clean and fine. Nothing special. </t>
   </si>
   <si>
+    <t>Donald C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r167850190-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1625,6 +1940,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Mark N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r167582185-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1634,6 +1952,9 @@
     <t>07/14/2013</t>
   </si>
   <si>
+    <t>Emily G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r166108761-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1646,6 +1967,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Kristin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r165035002-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1655,6 +1979,9 @@
     <t>06/24/2013</t>
   </si>
   <si>
+    <t>James W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r164851285-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1670,6 +1997,9 @@
     <t>the manager is rude and the room is terrible. There is a big crack between the door and floor, I have to put towels to block the light from lobby when I need to sleep. The swimming pool is very small.</t>
   </si>
   <si>
+    <t>PamelaN250</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r162402196-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1688,6 +2018,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Edward S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r162370803-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +2030,9 @@
     <t>05/29/2013</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r162192304-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1712,6 +2048,9 @@
     <t xml:space="preserve">Very nice place to stay. Close to the concert and there were plenty of places to eat. Will be back again. </t>
   </si>
   <si>
+    <t>Christina V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r157065643-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1730,6 +2069,9 @@
     <t>Responded April 13, 2013</t>
   </si>
   <si>
+    <t>Victoria N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r154847631-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1748,6 +2090,9 @@
     <t>Responded March 26, 2013</t>
   </si>
   <si>
+    <t>larrysing</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r154575845-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +2111,9 @@
     <t>Lots of little issues.  The staff is fairly aloof and verging on rude.  The "free breakfast" is microwave waffles, 3 cereal choices, doughnuts, muffins, coffee, Aptivia yogurt, a couple of fruit juices, and a bowl with apples and oranges in it.  Faint smell of stale smoke in the hallways.  Rooms are TINY.  No plastic bag for dirty clothes in the rooms (not just an oversight in MY room, because I asked if they provided them and was told no.)  Mini fridge FROZE my canned beverages - had to prop it open with a bar of soap to warm it up inside.  Shower water pressure is TERRIBLE - the water barely comes out.  I got this room with a Priceline "Name Your Price" bid, so I got it cheap - but I would not choose to stay here.More</t>
   </si>
   <si>
+    <t>Kelly P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r148218954-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1784,6 +2132,9 @@
     <t>Responded December 29, 2012</t>
   </si>
   <si>
+    <t>GARY H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r147736243-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2144,9 @@
     <t>12/19/2012</t>
   </si>
   <si>
+    <t>JANET H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r147706443-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1802,6 +2156,9 @@
     <t>12/18/2012</t>
   </si>
   <si>
+    <t>RUSSELL A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r145281742-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1820,6 +2177,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>MARK K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r143769463-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1832,6 +2192,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>MYoung72207</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r142506356-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1847,6 +2210,9 @@
     <t>If you're headed to DFW for a Cowboys or Rangers game or Six Flags, this is a great place to stay. It is a newer location, clean and convenient. The stadiums and Six Flags are about seven miles away, but they are very easy to get to from this hotel. I spent four nights at this location and really enjoyed it. It was quiet and clean. The only downfall is the parking lot on the backside has several trees and the birds have no mercy on the cars. Other than that, I am very pleased and will stay at this location again.</t>
   </si>
   <si>
+    <t>Cheryl H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r136990497-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1868,6 +2234,9 @@
     <t>I stayed 4 nights at the Microtel. The room was average and comfortable and I had no complaints until the morning I checked out. When I woke up I went into the bathroom, and happened to glance in the tub. I saw a large, dead cockroach lying in it. The roach was about 2 inches long. I also noticed later that the refrigerator was not working, but that could have been because the power cord was accidentally pulled out during vacuuming the day before. The fridge was working before that. When I told the desk clerk about the roach when I checked out, he said he would take care of it. No apology at all.More</t>
   </si>
   <si>
+    <t>Talk2tml</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r135501775-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1886,6 +2255,9 @@
     <t>Please change the cleaning product you use in the lobby ... Our first impression!! It smells like a men's toilet. Pinesol overdose!I almost canceled before even seeing the room -- but I'm glad I didn't.Our room newly decorated, very clean, no cleaning odors, comfy bed, wish I had my own pillow. The A/C cooled the room very well. Breakfast was good - but I felt like I was climbing over the other guests to get my meal -- the area is just too small.The staff was accommodating - but not friendly - or warm. Overall a very good value... If the lobby smelled better ... maybe Mr Clean fabreze??? I would give a better ratingMore</t>
   </si>
   <si>
+    <t>Penny M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r134055389-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1904,6 +2276,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>empoweredCorner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r100175637-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1922,6 +2297,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>sstraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r63611961-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1943,6 +2321,9 @@
     <t>After booking my room with Priceline name your own price,(non refundable) I read the reviews for this place and was expecting the worst! I warned my wife, but reassured her, we are only staying one night. We arrived after midnight and there were two clerks on duty, both of whom were perhaps not joyous to see us, but certainly helpful and friendly. I requested a ground floor room since my wife has trouble on stairs, and that was accomplished with no problem. When we arrived at the room, the lock worked  and the place smelled clean. It was not a huge room, but certainly was OK. There was a closet to hang things in and some built in drawers to use if needed. There was also a mini fridge and microwave. The bathroom was large and clean; the towels are not as big as we have at home, but they worked and there was plenty of soap and shampoo. The neighborhood appeared to be good, with a Wal-Mart supercenter just across Cooper St., and if you are into geocaching, there are several within walking distance!I certainly would not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>bushbulldog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r13104249-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1968,6 +2349,9 @@
   </si>
   <si>
     <t>Staff was unfriendly.  The door was hard to lock.  Tub was dirty.  The clock/radio did not work.  We only found one set of towels on check-in and asked for more.  What we got was two sets of stained and ripped towels which were visible to the clerk.  No apologies.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225022-r3278302-Microtel_Inn_Suites_by_Wyndham_Arlington_dallas_Area-Arlington_Texas.html</t>
@@ -2487,41 +2871,45 @@
       <c r="A2" t="n">
         <v>28606</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>101380</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -2545,50 +2933,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28606</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>168889</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2612,50 +3004,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>28606</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>168890</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -2679,50 +3075,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28606</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>168891</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2746,50 +3146,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28606</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>168892</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2813,50 +3217,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28606</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>168893</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2880,50 +3288,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28606</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>168894</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2947,50 +3359,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28606</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>13568</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3004,50 +3420,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28606</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>168895</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3071,35 +3491,39 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28606</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>168896</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3107,10 +3531,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3131,51 +3555,52 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28606</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>168897</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3199,50 +3624,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28606</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>168898</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3266,35 +3695,39 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28606</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>168899</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3302,10 +3735,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3326,51 +3759,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28606</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>168900</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -3394,48 +3828,52 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28606</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>168901</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3459,50 +3897,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28606</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>168902</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3518,35 +3960,39 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28606</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>168903</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -3554,10 +4000,10 @@
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3578,36 +4024,37 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28606</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>168904</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -3615,10 +4062,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3639,51 +4086,52 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28606</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>168905</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3707,35 +4155,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>28606</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>168906</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3743,10 +4195,10 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3767,36 +4219,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>28606</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>168907</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3804,10 +4257,10 @@
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3828,51 +4281,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>28606</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>168908</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3896,50 +4350,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28606</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>168909</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3959,35 +4417,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28606</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>168910</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3995,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -4019,36 +4481,37 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28606</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>15871</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -4056,10 +4519,10 @@
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4080,49 +4543,50 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28606</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>168911</v>
+      </c>
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4146,50 +4610,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28606</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>168912</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="J28" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="K28" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4213,50 +4681,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28606</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>168913</v>
+      </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="J29" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4276,35 +4748,39 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28606</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>168914</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J30" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -4312,10 +4788,10 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4336,51 +4812,52 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28606</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>168915</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J31" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4404,50 +4881,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28606</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>168916</v>
+      </c>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4471,35 +4952,39 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28606</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>168917</v>
+      </c>
+      <c r="C33" t="s">
+        <v>228</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="J33" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -4507,10 +4992,10 @@
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4531,51 +5016,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28606</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>168918</v>
+      </c>
+      <c r="C34" t="s">
+        <v>231</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="K34" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4599,50 +5085,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28606</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>168919</v>
+      </c>
+      <c r="C35" t="s">
+        <v>237</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="J35" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="K35" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4660,35 +5150,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28606</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>168920</v>
+      </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="J36" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4696,10 +5190,10 @@
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4720,36 +5214,37 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28606</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>168921</v>
+      </c>
+      <c r="C37" t="s">
+        <v>249</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="J37" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4757,10 +5252,10 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4781,36 +5276,37 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28606</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>168922</v>
+      </c>
+      <c r="C38" t="s">
+        <v>253</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="J38" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4818,10 +5314,10 @@
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4842,51 +5338,52 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28606</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>168923</v>
+      </c>
+      <c r="C39" t="s">
+        <v>258</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="J39" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4910,50 +5407,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28606</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>10563</v>
+      </c>
+      <c r="C40" t="s">
+        <v>265</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="J40" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4977,50 +5478,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28606</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>168924</v>
+      </c>
+      <c r="C41" t="s">
+        <v>271</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="J41" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="K41" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -5044,35 +5549,39 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>28606</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>168925</v>
+      </c>
+      <c r="C42" t="s">
+        <v>278</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="J42" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -5080,10 +5589,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5104,36 +5613,37 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>28606</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>168926</v>
+      </c>
+      <c r="C43" t="s">
+        <v>282</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="J43" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -5141,10 +5651,10 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5165,51 +5675,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>28606</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>168927</v>
+      </c>
+      <c r="C44" t="s">
+        <v>286</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="J44" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="K44" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5229,35 +5740,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>28606</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>168928</v>
+      </c>
+      <c r="C45" t="s">
+        <v>294</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="J45" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5265,10 +5780,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5289,51 +5804,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>28606</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>168929</v>
+      </c>
+      <c r="C46" t="s">
+        <v>298</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="J46" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="K46" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="L46" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5357,50 +5873,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>28606</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>168930</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="J47" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="L47" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5424,35 +5944,39 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>28606</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>168931</v>
+      </c>
+      <c r="C48" t="s">
+        <v>311</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="J48" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -5460,10 +5984,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5484,51 +6008,52 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>28606</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>315</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="J49" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="K49" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5552,50 +6077,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>28606</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>168932</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="J50" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="K50" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="L50" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5619,48 +6148,52 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>28606</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>168933</v>
+      </c>
+      <c r="C51" t="s">
+        <v>328</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="J51" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="O51" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5684,50 +6217,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>28606</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>168934</v>
+      </c>
+      <c r="C52" t="s">
+        <v>332</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="J52" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="K52" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="L52" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5751,35 +6288,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>28606</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>168935</v>
+      </c>
+      <c r="C53" t="s">
+        <v>339</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="J53" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5787,10 +6328,10 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5811,51 +6352,52 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>28606</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>24350</v>
+      </c>
+      <c r="C54" t="s">
+        <v>343</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="J54" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="K54" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="L54" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5879,35 +6421,39 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>28606</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>168936</v>
+      </c>
+      <c r="C55" t="s">
+        <v>350</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="J55" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5915,10 +6461,10 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5939,51 +6485,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>28606</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>168937</v>
+      </c>
+      <c r="C56" t="s">
+        <v>354</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="J56" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="K56" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="L56" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5999,35 +6546,39 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>28606</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>168938</v>
+      </c>
+      <c r="C57" t="s">
+        <v>361</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="J57" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -6035,10 +6586,10 @@
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6059,51 +6610,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>28606</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>168939</v>
+      </c>
+      <c r="C58" t="s">
+        <v>366</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="J58" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="K58" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="O58" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6127,35 +6679,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>28606</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>168940</v>
+      </c>
+      <c r="C59" t="s">
+        <v>373</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="J59" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -6163,10 +6719,10 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6187,36 +6743,37 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>28606</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>168941</v>
+      </c>
+      <c r="C60" t="s">
+        <v>377</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="J60" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -6224,10 +6781,10 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6248,49 +6805,50 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>28606</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>168942</v>
+      </c>
+      <c r="C61" t="s">
+        <v>381</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="J61" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="O61" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6314,50 +6872,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>28606</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>168943</v>
+      </c>
+      <c r="C62" t="s">
+        <v>385</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="J62" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="K62" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="L62" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6381,50 +6943,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>28606</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>168944</v>
+      </c>
+      <c r="C63" t="s">
+        <v>392</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="J63" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="K63" t="s">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="L63" t="s">
-        <v>335</v>
+        <v>397</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6444,50 +7010,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>335</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>28606</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>41193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>398</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="J64" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="K64" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="L64" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="O64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6511,50 +7081,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>28606</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>168945</v>
+      </c>
+      <c r="C65" t="s">
+        <v>404</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="J65" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="K65" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="L65" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
       <c r="O65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6578,50 +7152,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>28606</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>168946</v>
+      </c>
+      <c r="C66" t="s">
+        <v>411</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="J66" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="K66" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="L66" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6645,35 +7223,39 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>28606</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>168947</v>
+      </c>
+      <c r="C67" t="s">
+        <v>417</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="J67" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6681,10 +7263,10 @@
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="O67" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6705,51 +7287,52 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>28606</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>168948</v>
+      </c>
+      <c r="C68" t="s">
+        <v>422</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="J68" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="K68" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="L68" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="O68" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6773,35 +7356,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>28606</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>168949</v>
+      </c>
+      <c r="C69" t="s">
+        <v>428</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="J69" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6809,10 +7396,10 @@
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6833,36 +7420,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>28606</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>60201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>433</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="J70" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6870,10 +7458,10 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6894,36 +7482,37 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>28606</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>168950</v>
+      </c>
+      <c r="C71" t="s">
+        <v>437</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="J71" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6931,10 +7520,10 @@
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6955,36 +7544,37 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>28606</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>72740</v>
+      </c>
+      <c r="C72" t="s">
+        <v>441</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="J72" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6992,10 +7582,10 @@
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="O72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -7016,36 +7606,37 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>28606</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>168951</v>
+      </c>
+      <c r="C73" t="s">
+        <v>445</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
       <c r="J73" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -7053,10 +7644,10 @@
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="O73" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7077,36 +7668,37 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>28606</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>168952</v>
+      </c>
+      <c r="C74" t="s">
+        <v>449</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="J74" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -7114,10 +7706,10 @@
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7138,49 +7730,50 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>28606</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>16579</v>
+      </c>
+      <c r="C75" t="s">
+        <v>454</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="J75" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="O75" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7204,48 +7797,52 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>28606</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>168953</v>
+      </c>
+      <c r="C76" t="s">
+        <v>459</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>385</v>
+        <v>460</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="J76" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="O76" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7269,50 +7866,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>28606</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>168954</v>
+      </c>
+      <c r="C77" t="s">
+        <v>463</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="J77" t="s">
-        <v>390</v>
+        <v>466</v>
       </c>
       <c r="K77" t="s">
-        <v>391</v>
+        <v>467</v>
       </c>
       <c r="L77" t="s">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="O77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7336,50 +7937,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>393</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>28606</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>168955</v>
+      </c>
+      <c r="C78" t="s">
+        <v>470</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
       <c r="J78" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="K78" t="s">
-        <v>397</v>
+        <v>474</v>
       </c>
       <c r="L78" t="s">
-        <v>398</v>
+        <v>475</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="O78" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7393,35 +7998,39 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>398</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>28606</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>56494</v>
+      </c>
+      <c r="C79" t="s">
+        <v>477</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="J79" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7429,10 +8038,10 @@
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7453,51 +8062,52 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>28606</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>100725</v>
+      </c>
+      <c r="C80" t="s">
+        <v>482</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="J80" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
       <c r="K80" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="L80" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -7511,35 +8121,39 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>28606</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>168956</v>
+      </c>
+      <c r="C81" t="s">
+        <v>488</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>409</v>
+        <v>489</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="J81" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7547,10 +8161,10 @@
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="O81" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -7569,51 +8183,52 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>28606</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>168957</v>
+      </c>
+      <c r="C82" t="s">
+        <v>492</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="J82" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="K82" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="L82" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>417</v>
+        <v>498</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7633,35 +8248,39 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>28606</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C83" t="s">
+        <v>499</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="J83" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -7669,10 +8288,10 @@
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7693,36 +8312,37 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>28606</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>168958</v>
+      </c>
+      <c r="C84" t="s">
+        <v>504</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="J84" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -7730,10 +8350,10 @@
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="O84" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7754,51 +8374,52 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>28606</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>168959</v>
+      </c>
+      <c r="C85" t="s">
+        <v>508</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>426</v>
+        <v>510</v>
       </c>
       <c r="J85" t="s">
-        <v>427</v>
+        <v>511</v>
       </c>
       <c r="K85" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="L85" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="O85" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -7816,35 +8437,39 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>28606</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>168960</v>
+      </c>
+      <c r="C86" t="s">
+        <v>514</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>430</v>
+        <v>515</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="J86" t="s">
-        <v>432</v>
+        <v>517</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7852,10 +8477,10 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="O86" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -7876,42 +8501,43 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>28606</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>168961</v>
+      </c>
+      <c r="C87" t="s">
+        <v>519</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>435</v>
+        <v>521</v>
       </c>
       <c r="J87" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
       <c r="K87" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L87" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
@@ -7940,50 +8566,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>28606</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>25940</v>
+      </c>
+      <c r="C88" t="s">
+        <v>524</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>438</v>
+        <v>525</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>439</v>
+        <v>526</v>
       </c>
       <c r="J88" t="s">
-        <v>440</v>
+        <v>527</v>
       </c>
       <c r="K88" t="s">
-        <v>441</v>
+        <v>528</v>
       </c>
       <c r="L88" t="s">
-        <v>442</v>
+        <v>529</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>443</v>
+        <v>530</v>
       </c>
       <c r="O88" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -7997,35 +8627,39 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>442</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>28606</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>43210</v>
+      </c>
+      <c r="C89" t="s">
+        <v>531</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>444</v>
+        <v>532</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>445</v>
+        <v>533</v>
       </c>
       <c r="J89" t="s">
-        <v>446</v>
+        <v>534</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -8033,10 +8667,10 @@
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>447</v>
+        <v>535</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -8057,42 +8691,43 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>28606</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>4227</v>
+      </c>
+      <c r="C90" t="s">
+        <v>536</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>448</v>
+        <v>537</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="J90" t="s">
-        <v>450</v>
+        <v>539</v>
       </c>
       <c r="K90" t="s">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="L90" t="s">
-        <v>452</v>
+        <v>541</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
@@ -8121,50 +8756,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>452</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>28606</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>168962</v>
+      </c>
+      <c r="C91" t="s">
+        <v>542</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>453</v>
+        <v>543</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>454</v>
+        <v>544</v>
       </c>
       <c r="J91" t="s">
-        <v>455</v>
+        <v>545</v>
       </c>
       <c r="K91" t="s">
-        <v>456</v>
+        <v>546</v>
       </c>
       <c r="L91" t="s">
-        <v>457</v>
+        <v>547</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>458</v>
+        <v>548</v>
       </c>
       <c r="O91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8188,50 +8827,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>457</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>28606</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C92" t="s">
+        <v>549</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>459</v>
+        <v>550</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>460</v>
+        <v>551</v>
       </c>
       <c r="J92" t="s">
-        <v>461</v>
+        <v>552</v>
       </c>
       <c r="K92" t="s">
-        <v>462</v>
+        <v>553</v>
       </c>
       <c r="L92" t="s">
-        <v>463</v>
+        <v>554</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>464</v>
+        <v>555</v>
       </c>
       <c r="O92" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P92" t="n">
         <v>2</v>
@@ -8255,35 +8898,39 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>463</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>28606</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C93" t="s">
+        <v>549</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>465</v>
+        <v>556</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="J93" t="s">
-        <v>461</v>
+        <v>552</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8291,10 +8938,10 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>464</v>
+        <v>555</v>
       </c>
       <c r="O93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P93" t="n">
         <v>2</v>
@@ -8315,51 +8962,52 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>28606</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>1144</v>
+      </c>
+      <c r="C94" t="s">
+        <v>558</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="J94" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="K94" t="s">
-        <v>470</v>
+        <v>562</v>
       </c>
       <c r="L94" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>464</v>
+        <v>555</v>
       </c>
       <c r="O94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8383,50 +9031,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>28606</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C95" t="s">
+        <v>564</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>472</v>
+        <v>565</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="J95" t="s">
-        <v>474</v>
+        <v>567</v>
       </c>
       <c r="K95" t="s">
-        <v>475</v>
+        <v>568</v>
       </c>
       <c r="L95" t="s">
-        <v>476</v>
+        <v>569</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>477</v>
+        <v>570</v>
       </c>
       <c r="O95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -8450,50 +9102,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>476</v>
+        <v>569</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>28606</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>147372</v>
+      </c>
+      <c r="C96" t="s">
+        <v>571</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>479</v>
+        <v>573</v>
       </c>
       <c r="J96" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
       <c r="K96" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="L96" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>477</v>
+        <v>570</v>
       </c>
       <c r="O96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -8517,35 +9173,39 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>28606</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>27976</v>
+      </c>
+      <c r="C97" t="s">
+        <v>577</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>483</v>
+        <v>578</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="J97" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s"/>
@@ -8553,10 +9213,10 @@
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>477</v>
+        <v>570</v>
       </c>
       <c r="O97" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8577,51 +9237,52 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
-      <c r="W97" t="s"/>
-      <c r="X97" t="s"/>
-      <c r="Y97" t="s"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>28606</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>5025</v>
+      </c>
+      <c r="C98" t="s">
+        <v>580</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>485</v>
+        <v>581</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>486</v>
+        <v>582</v>
       </c>
       <c r="J98" t="s">
-        <v>487</v>
+        <v>583</v>
       </c>
       <c r="K98" t="s">
-        <v>488</v>
+        <v>584</v>
       </c>
       <c r="L98" t="s">
-        <v>489</v>
+        <v>585</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>490</v>
+        <v>586</v>
       </c>
       <c r="O98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8645,48 +9306,52 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>489</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>28606</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>168963</v>
+      </c>
+      <c r="C99" t="s">
+        <v>587</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>491</v>
+        <v>588</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>492</v>
+        <v>589</v>
       </c>
       <c r="J99" t="s">
-        <v>493</v>
+        <v>590</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>494</v>
+        <v>591</v>
       </c>
       <c r="O99" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -8710,50 +9375,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>28606</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>168964</v>
+      </c>
+      <c r="C100" t="s">
+        <v>592</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="J100" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="K100" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="L100" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>494</v>
+        <v>591</v>
       </c>
       <c r="O100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P100" t="n">
         <v>1</v>
@@ -8777,50 +9446,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>28606</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>30085</v>
+      </c>
+      <c r="C101" t="s">
+        <v>598</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="J101" t="s">
-        <v>502</v>
+        <v>601</v>
       </c>
       <c r="K101" t="s">
-        <v>503</v>
+        <v>602</v>
       </c>
       <c r="L101" t="s">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="O101" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -8844,35 +9517,39 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>504</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>28606</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>48227</v>
+      </c>
+      <c r="C102" t="s">
+        <v>605</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>506</v>
+        <v>606</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="J102" t="s">
-        <v>508</v>
+        <v>608</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s"/>
@@ -8880,10 +9557,10 @@
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="O102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -8904,36 +9581,37 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>28606</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>22651</v>
+      </c>
+      <c r="C103" t="s">
+        <v>609</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>509</v>
+        <v>610</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>510</v>
+        <v>611</v>
       </c>
       <c r="J103" t="s">
-        <v>511</v>
+        <v>612</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s"/>
@@ -8941,10 +9619,10 @@
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>512</v>
+        <v>613</v>
       </c>
       <c r="O103" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -8965,36 +9643,37 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="s"/>
-      <c r="X103" t="s"/>
-      <c r="Y103" t="s"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>28606</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C104" t="s">
+        <v>614</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>513</v>
+        <v>615</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>514</v>
+        <v>616</v>
       </c>
       <c r="J104" t="s">
-        <v>515</v>
+        <v>617</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s"/>
@@ -9002,10 +9681,10 @@
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>516</v>
+        <v>618</v>
       </c>
       <c r="O104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9026,36 +9705,37 @@
       <c r="V104" t="n">
         <v>0</v>
       </c>
-      <c r="W104" t="s"/>
-      <c r="X104" t="s"/>
-      <c r="Y104" t="s"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>28606</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>168965</v>
+      </c>
+      <c r="C105" t="s">
+        <v>619</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>517</v>
+        <v>620</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>518</v>
+        <v>621</v>
       </c>
       <c r="J105" t="s">
-        <v>519</v>
+        <v>622</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s"/>
@@ -9063,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>516</v>
+        <v>618</v>
       </c>
       <c r="O105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -9087,36 +9767,37 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
-      <c r="W105" t="s"/>
-      <c r="X105" t="s"/>
-      <c r="Y105" t="s"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>28606</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C106" t="s">
+        <v>499</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>520</v>
+        <v>623</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>521</v>
+        <v>624</v>
       </c>
       <c r="J106" t="s">
-        <v>522</v>
+        <v>625</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s"/>
@@ -9124,10 +9805,10 @@
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>523</v>
+        <v>626</v>
       </c>
       <c r="O106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9148,42 +9829,43 @@
       <c r="V106" t="n">
         <v>0</v>
       </c>
-      <c r="W106" t="s"/>
-      <c r="X106" t="s"/>
-      <c r="Y106" t="s"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>28606</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>168966</v>
+      </c>
+      <c r="C107" t="s">
+        <v>627</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>524</v>
+        <v>628</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>525</v>
+        <v>629</v>
       </c>
       <c r="J107" t="s">
-        <v>526</v>
+        <v>630</v>
       </c>
       <c r="K107" t="s">
-        <v>527</v>
+        <v>631</v>
       </c>
       <c r="L107" t="s">
-        <v>528</v>
+        <v>632</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
@@ -9212,50 +9894,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>528</v>
+        <v>632</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>28606</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>13372</v>
+      </c>
+      <c r="C108" t="s">
+        <v>633</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>529</v>
+        <v>634</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>530</v>
+        <v>635</v>
       </c>
       <c r="J108" t="s">
-        <v>531</v>
+        <v>636</v>
       </c>
       <c r="K108" t="s">
-        <v>532</v>
+        <v>637</v>
       </c>
       <c r="L108" t="s">
-        <v>533</v>
+        <v>638</v>
       </c>
       <c r="M108" t="n">
         <v>2</v>
       </c>
       <c r="N108" t="s">
-        <v>534</v>
+        <v>639</v>
       </c>
       <c r="O108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P108" t="n">
         <v>2</v>
@@ -9279,35 +9965,39 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>533</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>28606</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>6644</v>
+      </c>
+      <c r="C109" t="s">
+        <v>640</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>535</v>
+        <v>641</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>536</v>
+        <v>642</v>
       </c>
       <c r="J109" t="s">
-        <v>537</v>
+        <v>643</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s"/>
@@ -9315,10 +10005,10 @@
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>534</v>
+        <v>639</v>
       </c>
       <c r="O109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P109" t="n">
         <v>2</v>
@@ -9339,36 +10029,37 @@
       <c r="V109" t="n">
         <v>0</v>
       </c>
-      <c r="W109" t="s"/>
-      <c r="X109" t="s"/>
-      <c r="Y109" t="s"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>28606</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>8291</v>
+      </c>
+      <c r="C110" t="s">
+        <v>644</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>538</v>
+        <v>645</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>539</v>
+        <v>646</v>
       </c>
       <c r="J110" t="s">
-        <v>540</v>
+        <v>647</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s"/>
@@ -9376,10 +10067,10 @@
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>541</v>
+        <v>648</v>
       </c>
       <c r="O110" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -9400,36 +10091,37 @@
       <c r="V110" t="n">
         <v>0</v>
       </c>
-      <c r="W110" t="s"/>
-      <c r="X110" t="s"/>
-      <c r="Y110" t="s"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>28606</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>8209</v>
+      </c>
+      <c r="C111" t="s">
+        <v>649</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>542</v>
+        <v>650</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>543</v>
+        <v>651</v>
       </c>
       <c r="J111" t="s">
-        <v>544</v>
+        <v>652</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s"/>
@@ -9437,10 +10129,10 @@
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>541</v>
+        <v>648</v>
       </c>
       <c r="O111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P111" t="n">
         <v>2</v>
@@ -9461,51 +10153,52 @@
       <c r="V111" t="n">
         <v>0</v>
       </c>
-      <c r="W111" t="s"/>
-      <c r="X111" t="s"/>
-      <c r="Y111" t="s"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>28606</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>2409</v>
+      </c>
+      <c r="C112" t="s">
+        <v>653</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>545</v>
+        <v>654</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>546</v>
+        <v>655</v>
       </c>
       <c r="J112" t="s">
-        <v>547</v>
+        <v>656</v>
       </c>
       <c r="K112" t="s">
-        <v>548</v>
+        <v>657</v>
       </c>
       <c r="L112" t="s">
-        <v>549</v>
+        <v>658</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>541</v>
+        <v>648</v>
       </c>
       <c r="O112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -9529,50 +10222,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>549</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>28606</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>168967</v>
+      </c>
+      <c r="C113" t="s">
+        <v>659</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>551</v>
+        <v>661</v>
       </c>
       <c r="J113" t="s">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="K113" t="s">
-        <v>553</v>
+        <v>663</v>
       </c>
       <c r="L113" t="s">
-        <v>554</v>
+        <v>664</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
       <c r="O113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -9596,48 +10293,52 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>554</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>28606</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>27499</v>
+      </c>
+      <c r="C114" t="s">
+        <v>666</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>557</v>
+        <v>668</v>
       </c>
       <c r="J114" t="s">
-        <v>558</v>
+        <v>669</v>
       </c>
       <c r="K114" t="s"/>
       <c r="L114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
       <c r="O114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P114" t="n">
         <v>2</v>
@@ -9661,50 +10362,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>28606</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C115" t="s">
+        <v>670</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>559</v>
+        <v>671</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>560</v>
+        <v>672</v>
       </c>
       <c r="J115" t="s">
-        <v>561</v>
+        <v>673</v>
       </c>
       <c r="K115" t="s">
-        <v>562</v>
+        <v>674</v>
       </c>
       <c r="L115" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
       <c r="O115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P115" t="n">
         <v>4</v>
@@ -9728,48 +10433,52 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>28606</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C116" t="s">
+        <v>676</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>564</v>
+        <v>677</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="J116" t="s">
-        <v>566</v>
+        <v>679</v>
       </c>
       <c r="K116" t="s"/>
       <c r="L116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M116" t="n">
         <v>4</v>
       </c>
       <c r="N116" t="s">
-        <v>567</v>
+        <v>680</v>
       </c>
       <c r="O116" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P116" t="n">
         <v>4</v>
@@ -9791,54 +10500,58 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>568</v>
+        <v>681</v>
       </c>
       <c r="X116" t="s">
-        <v>569</v>
+        <v>682</v>
       </c>
       <c r="Y116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>28606</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>168968</v>
+      </c>
+      <c r="C117" t="s">
+        <v>683</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>571</v>
+        <v>685</v>
       </c>
       <c r="J117" t="s">
-        <v>572</v>
+        <v>686</v>
       </c>
       <c r="K117" t="s"/>
       <c r="L117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>573</v>
+        <v>687</v>
       </c>
       <c r="O117" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -9860,56 +10573,60 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>574</v>
+        <v>688</v>
       </c>
       <c r="X117" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="Y117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>28606</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>168969</v>
+      </c>
+      <c r="C118" t="s">
+        <v>690</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>576</v>
+        <v>691</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>577</v>
+        <v>692</v>
       </c>
       <c r="J118" t="s">
-        <v>578</v>
+        <v>693</v>
       </c>
       <c r="K118" t="s">
-        <v>579</v>
+        <v>694</v>
       </c>
       <c r="L118" t="s">
-        <v>580</v>
+        <v>695</v>
       </c>
       <c r="M118" t="n">
         <v>2</v>
       </c>
       <c r="N118" t="s">
-        <v>573</v>
+        <v>687</v>
       </c>
       <c r="O118" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P118" t="n">
         <v>3</v>
@@ -9931,54 +10648,58 @@
         <v>0</v>
       </c>
       <c r="W118" t="s">
-        <v>574</v>
+        <v>688</v>
       </c>
       <c r="X118" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="Y118" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>28606</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>15710</v>
+      </c>
+      <c r="C119" t="s">
+        <v>697</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>583</v>
+        <v>699</v>
       </c>
       <c r="J119" t="s">
-        <v>584</v>
+        <v>700</v>
       </c>
       <c r="K119" t="s"/>
       <c r="L119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M119" t="n">
         <v>3</v>
       </c>
       <c r="N119" t="s">
-        <v>585</v>
+        <v>701</v>
       </c>
       <c r="O119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P119" t="n">
         <v>4</v>
@@ -10000,54 +10721,58 @@
         <v>0</v>
       </c>
       <c r="W119" t="s">
-        <v>586</v>
+        <v>702</v>
       </c>
       <c r="X119" t="s">
-        <v>587</v>
+        <v>703</v>
       </c>
       <c r="Y119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>28606</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>168970</v>
+      </c>
+      <c r="C120" t="s">
+        <v>704</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>588</v>
+        <v>705</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>589</v>
+        <v>706</v>
       </c>
       <c r="J120" t="s">
-        <v>590</v>
+        <v>707</v>
       </c>
       <c r="K120" t="s"/>
       <c r="L120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M120" t="n">
         <v>3</v>
       </c>
       <c r="N120" t="s">
-        <v>585</v>
+        <v>701</v>
       </c>
       <c r="O120" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P120" t="n">
         <v>4</v>
@@ -10069,54 +10794,58 @@
         <v>0</v>
       </c>
       <c r="W120" t="s">
-        <v>586</v>
+        <v>702</v>
       </c>
       <c r="X120" t="s">
-        <v>587</v>
+        <v>703</v>
       </c>
       <c r="Y120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>28606</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>168971</v>
+      </c>
+      <c r="C121" t="s">
+        <v>708</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>591</v>
+        <v>709</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>592</v>
+        <v>710</v>
       </c>
       <c r="J121" t="s">
-        <v>593</v>
+        <v>711</v>
       </c>
       <c r="K121" t="s"/>
       <c r="L121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>585</v>
+        <v>701</v>
       </c>
       <c r="O121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P121" t="n">
         <v>5</v>
@@ -10138,56 +10867,60 @@
         <v>0</v>
       </c>
       <c r="W121" t="s">
-        <v>586</v>
+        <v>702</v>
       </c>
       <c r="X121" t="s">
-        <v>587</v>
+        <v>703</v>
       </c>
       <c r="Y121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>28606</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>168972</v>
+      </c>
+      <c r="C122" t="s">
+        <v>712</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>594</v>
+        <v>713</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>595</v>
+        <v>714</v>
       </c>
       <c r="J122" t="s">
-        <v>596</v>
+        <v>715</v>
       </c>
       <c r="K122" t="s">
-        <v>597</v>
+        <v>716</v>
       </c>
       <c r="L122" t="s">
-        <v>598</v>
+        <v>717</v>
       </c>
       <c r="M122" t="n">
         <v>3</v>
       </c>
       <c r="N122" t="s">
-        <v>599</v>
+        <v>718</v>
       </c>
       <c r="O122" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P122" t="n">
         <v>4</v>
@@ -10211,35 +10944,39 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>598</v>
+        <v>717</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>28606</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>168973</v>
+      </c>
+      <c r="C123" t="s">
+        <v>719</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>601</v>
+        <v>721</v>
       </c>
       <c r="J123" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="K123" t="s"/>
       <c r="L123" t="s"/>
@@ -10247,10 +10984,10 @@
         <v>4</v>
       </c>
       <c r="N123" t="s">
-        <v>603</v>
+        <v>723</v>
       </c>
       <c r="O123" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P123" t="n">
         <v>5</v>
@@ -10271,51 +11008,52 @@
       <c r="V123" t="n">
         <v>0</v>
       </c>
-      <c r="W123" t="s"/>
-      <c r="X123" t="s"/>
-      <c r="Y123" t="s"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>28606</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>168974</v>
+      </c>
+      <c r="C124" t="s">
+        <v>724</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>604</v>
+        <v>725</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>605</v>
+        <v>726</v>
       </c>
       <c r="J124" t="s">
-        <v>606</v>
+        <v>727</v>
       </c>
       <c r="K124" t="s">
-        <v>607</v>
+        <v>728</v>
       </c>
       <c r="L124" t="s">
-        <v>608</v>
+        <v>729</v>
       </c>
       <c r="M124" t="n">
         <v>4</v>
       </c>
       <c r="N124" t="s">
-        <v>603</v>
+        <v>723</v>
       </c>
       <c r="O124" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P124" t="n">
         <v>5</v>
@@ -10339,50 +11077,54 @@
       <c r="W124" t="s"/>
       <c r="X124" t="s"/>
       <c r="Y124" t="s">
-        <v>608</v>
+        <v>729</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>28606</v>
       </c>
-      <c r="B125" t="s"/>
-      <c r="C125" t="s"/>
+      <c r="B125" t="n">
+        <v>21017</v>
+      </c>
+      <c r="C125" t="s">
+        <v>730</v>
+      </c>
       <c r="D125" t="n">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>609</v>
+        <v>731</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I125" t="s">
-        <v>610</v>
+        <v>732</v>
       </c>
       <c r="J125" t="s">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="K125" t="s">
-        <v>612</v>
+        <v>734</v>
       </c>
       <c r="L125" t="s">
-        <v>613</v>
+        <v>735</v>
       </c>
       <c r="M125" t="n">
         <v>3</v>
       </c>
       <c r="N125" t="s">
-        <v>614</v>
+        <v>736</v>
       </c>
       <c r="O125" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P125" t="n">
         <v>3</v>
@@ -10406,41 +11148,45 @@
       <c r="W125" t="s"/>
       <c r="X125" t="s"/>
       <c r="Y125" t="s">
-        <v>615</v>
+        <v>737</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>28606</v>
       </c>
-      <c r="B126" t="s"/>
-      <c r="C126" t="s"/>
+      <c r="B126" t="n">
+        <v>168975</v>
+      </c>
+      <c r="C126" t="s">
+        <v>738</v>
+      </c>
       <c r="D126" t="n">
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>616</v>
+        <v>739</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I126" t="s">
-        <v>617</v>
+        <v>740</v>
       </c>
       <c r="J126" t="s">
-        <v>618</v>
+        <v>741</v>
       </c>
       <c r="K126" t="s">
-        <v>619</v>
+        <v>742</v>
       </c>
       <c r="L126" t="s">
-        <v>620</v>
+        <v>743</v>
       </c>
       <c r="M126" t="n">
         <v>4</v>
@@ -10469,50 +11215,54 @@
       <c r="W126" t="s"/>
       <c r="X126" t="s"/>
       <c r="Y126" t="s">
-        <v>621</v>
+        <v>744</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>28606</v>
       </c>
-      <c r="B127" t="s"/>
-      <c r="C127" t="s"/>
+      <c r="B127" t="n">
+        <v>26344</v>
+      </c>
+      <c r="C127" t="s">
+        <v>745</v>
+      </c>
       <c r="D127" t="n">
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>622</v>
+        <v>746</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I127" t="s">
-        <v>623</v>
+        <v>747</v>
       </c>
       <c r="J127" t="s">
-        <v>624</v>
+        <v>748</v>
       </c>
       <c r="K127" t="s">
-        <v>625</v>
+        <v>749</v>
       </c>
       <c r="L127" t="s">
-        <v>626</v>
+        <v>750</v>
       </c>
       <c r="M127" t="n">
         <v>4</v>
       </c>
       <c r="N127" t="s">
-        <v>627</v>
+        <v>751</v>
       </c>
       <c r="O127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P127" t="n">
         <v>4</v>
@@ -10536,50 +11286,54 @@
       <c r="W127" t="s"/>
       <c r="X127" t="s"/>
       <c r="Y127" t="s">
-        <v>626</v>
+        <v>750</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>28606</v>
       </c>
-      <c r="B128" t="s"/>
-      <c r="C128" t="s"/>
+      <c r="B128" t="n">
+        <v>168976</v>
+      </c>
+      <c r="C128" t="s">
+        <v>752</v>
+      </c>
       <c r="D128" t="n">
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>628</v>
+        <v>753</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I128" t="s">
-        <v>629</v>
+        <v>754</v>
       </c>
       <c r="J128" t="s">
-        <v>630</v>
+        <v>755</v>
       </c>
       <c r="K128" t="s">
-        <v>631</v>
+        <v>756</v>
       </c>
       <c r="L128" t="s">
-        <v>632</v>
+        <v>757</v>
       </c>
       <c r="M128" t="n">
         <v>4</v>
       </c>
       <c r="N128" t="s">
-        <v>633</v>
+        <v>758</v>
       </c>
       <c r="O128" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P128" t="n">
         <v>5</v>
@@ -10603,50 +11357,54 @@
       <c r="W128" t="s"/>
       <c r="X128" t="s"/>
       <c r="Y128" t="s">
-        <v>632</v>
+        <v>757</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>28606</v>
       </c>
-      <c r="B129" t="s"/>
-      <c r="C129" t="s"/>
+      <c r="B129" t="n">
+        <v>168977</v>
+      </c>
+      <c r="C129" t="s">
+        <v>759</v>
+      </c>
       <c r="D129" t="n">
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="G129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I129" t="s">
-        <v>635</v>
+        <v>761</v>
       </c>
       <c r="J129" t="s">
-        <v>636</v>
+        <v>762</v>
       </c>
       <c r="K129" t="s">
-        <v>637</v>
+        <v>763</v>
       </c>
       <c r="L129" t="s">
-        <v>638</v>
+        <v>764</v>
       </c>
       <c r="M129" t="n">
         <v>3</v>
       </c>
       <c r="N129" t="s">
-        <v>639</v>
+        <v>765</v>
       </c>
       <c r="O129" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P129" t="n">
         <v>4</v>
@@ -10670,50 +11428,54 @@
       <c r="W129" t="s"/>
       <c r="X129" t="s"/>
       <c r="Y129" t="s">
-        <v>640</v>
+        <v>766</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
         <v>28606</v>
       </c>
-      <c r="B130" t="s"/>
-      <c r="C130" t="s"/>
+      <c r="B130" t="n">
+        <v>168978</v>
+      </c>
+      <c r="C130" t="s">
+        <v>767</v>
+      </c>
       <c r="D130" t="n">
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>641</v>
+        <v>768</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I130" t="s">
-        <v>642</v>
+        <v>769</v>
       </c>
       <c r="J130" t="s">
-        <v>643</v>
+        <v>770</v>
       </c>
       <c r="K130" t="s">
-        <v>644</v>
+        <v>771</v>
       </c>
       <c r="L130" t="s">
-        <v>645</v>
+        <v>772</v>
       </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
       <c r="N130" t="s">
-        <v>646</v>
+        <v>773</v>
       </c>
       <c r="O130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P130" t="n">
         <v>1</v>
@@ -10735,47 +11497,51 @@
         <v>0</v>
       </c>
       <c r="W130" t="s">
-        <v>647</v>
+        <v>774</v>
       </c>
       <c r="X130" t="s">
-        <v>648</v>
+        <v>775</v>
       </c>
       <c r="Y130" t="s">
-        <v>649</v>
+        <v>776</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>28606</v>
       </c>
-      <c r="B131" t="s"/>
-      <c r="C131" t="s"/>
+      <c r="B131" t="n">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>777</v>
+      </c>
       <c r="D131" t="n">
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>650</v>
+        <v>778</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I131" t="s">
-        <v>651</v>
+        <v>779</v>
       </c>
       <c r="J131" t="s">
-        <v>652</v>
+        <v>780</v>
       </c>
       <c r="K131" t="s">
-        <v>653</v>
+        <v>781</v>
       </c>
       <c r="L131" t="s">
-        <v>654</v>
+        <v>782</v>
       </c>
       <c r="M131" t="n">
         <v>2</v>
@@ -10794,7 +11560,7 @@
       <c r="W131" t="s"/>
       <c r="X131" t="s"/>
       <c r="Y131" t="s">
-        <v>654</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
